--- a/최종 전처리 데이터 모음/2019/2019년 기준 최종 전처리 산업연관표(수입거래표).xlsx
+++ b/최종 전처리 데이터 모음/2019/2019년 기준 최종 전처리 산업연관표(수입거래표).xlsx
@@ -8,14 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dongyokim/main/jupyter/2022:Summer/프로젝트/최종 전처리 데이터 모음/2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8E9815-2FE0-7C4D-99AC-48185B06B76A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C746B5EA-8AB3-DF41-9BB5-94DCE2A1F863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -495,7 +507,7 @@
   <dimension ref="A1:AF23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
